--- a/Database/data/EMU3000/EMU 3000 維修物料清單/5年維護/01 清潔塊單元--C20、C21--OK/清潔塊單元C20、C21大修料件清單--60個月.xlsx
+++ b/Database/data/EMU3000/EMU 3000 維修物料清單/5年維護/01 清潔塊單元--C20、C21--OK/清潔塊單元C20、C21大修料件清單--60個月.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\暑期工讀\EMU 3000 維修物料清單\EMU 3000 維修物料清單\5y\清潔塊單元--C20、C21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\SBIR\Database\data\EMU3000\EMU 3000 維修物料清單\5年維護\01 清潔塊單元--C20、C21--OK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6D9CA1A-92DD-4DD5-AA66-1F19A3B2424B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA276AA6-B6FB-497F-88B8-B5924D0969FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="定更件" sheetId="1" r:id="rId1"/>
@@ -474,7 +474,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7840087" y="0"/>
+          <a:off x="8506983" y="0"/>
           <a:ext cx="3580951" cy="3053082"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="5083173" cy="4071421"/>
@@ -924,7 +924,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7924800" y="5369858"/>
+          <a:off x="8675984" y="5496143"/>
           <a:ext cx="3361765" cy="2807598"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="5083175" cy="4071620"/>
@@ -1379,7 +1379,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6957061" y="0"/>
+          <a:off x="7578091" y="0"/>
           <a:ext cx="2392679" cy="2092962"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="5083173" cy="4071421"/>
@@ -1829,7 +1829,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7048501" y="4244340"/>
+          <a:off x="7669531" y="4453890"/>
           <a:ext cx="2354580" cy="1925022"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="5083175" cy="4071620"/>
@@ -2262,9 +2262,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2302,9 +2302,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2337,26 +2337,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2389,26 +2372,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2584,23 +2550,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K261"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S47" sqref="S47"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="54.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>68</v>
       </c>
@@ -2626,7 +2592,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
       <c r="B2" s="2" t="s">
         <v>27</v>
@@ -2645,7 +2611,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>1</v>
       </c>
@@ -2666,7 +2632,7 @@
       </c>
       <c r="J3" s="13"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>2</v>
       </c>
@@ -2686,7 +2652,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>5</v>
       </c>
@@ -2706,7 +2672,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>6</v>
       </c>
@@ -2726,7 +2692,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>7</v>
       </c>
@@ -2747,7 +2713,7 @@
       </c>
       <c r="J7" s="13"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>8</v>
       </c>
@@ -2767,7 +2733,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>9</v>
       </c>
@@ -2787,7 +2753,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>12</v>
       </c>
@@ -2807,7 +2773,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>19</v>
       </c>
@@ -2827,7 +2793,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>21</v>
       </c>
@@ -2847,7 +2813,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>22</v>
       </c>
@@ -2867,7 +2833,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>23</v>
       </c>
@@ -2887,7 +2853,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>24</v>
       </c>
@@ -2907,7 +2873,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>31</v>
       </c>
@@ -2927,7 +2893,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>35</v>
       </c>
@@ -2947,7 +2913,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>37</v>
       </c>
@@ -2967,7 +2933,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>38</v>
       </c>
@@ -2990,7 +2956,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>39</v>
       </c>
@@ -3011,7 +2977,7 @@
       </c>
       <c r="J20" s="13"/>
     </row>
-    <row r="21" spans="1:11" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>63</v>
       </c>
@@ -3026,7 +2992,7 @@
       </c>
       <c r="J21" s="13"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>2</v>
       </c>
@@ -3046,7 +3012,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>3</v>
       </c>
@@ -3066,7 +3032,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>4</v>
       </c>
@@ -3086,7 +3052,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>5</v>
       </c>
@@ -3106,7 +3072,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="B26" s="2" t="s">
         <v>66</v>
@@ -3121,7 +3087,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>1</v>
       </c>
@@ -3141,7 +3107,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>2</v>
       </c>
@@ -3161,7 +3127,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>5</v>
       </c>
@@ -3181,7 +3147,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>6</v>
       </c>
@@ -3202,7 +3168,7 @@
       </c>
       <c r="J30" s="13"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
         <v>7</v>
       </c>
@@ -3222,7 +3188,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
         <v>8</v>
       </c>
@@ -3245,7 +3211,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A33" s="14">
         <v>9</v>
       </c>
@@ -3266,7 +3232,7 @@
       </c>
       <c r="J33" s="13"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="14">
         <v>12</v>
       </c>
@@ -3286,7 +3252,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="14">
         <v>19</v>
       </c>
@@ -3306,7 +3272,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="14">
         <v>21</v>
       </c>
@@ -3326,7 +3292,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="14">
         <v>22</v>
       </c>
@@ -3346,7 +3312,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="14">
         <v>23</v>
       </c>
@@ -3366,7 +3332,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="14">
         <v>24</v>
       </c>
@@ -3386,7 +3352,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="14">
         <v>31</v>
       </c>
@@ -3406,7 +3372,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="14">
         <v>35</v>
       </c>
@@ -3426,7 +3392,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="14">
         <v>37</v>
       </c>
@@ -3446,7 +3412,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="14">
         <v>38</v>
       </c>
@@ -3466,7 +3432,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="14">
         <v>39</v>
       </c>
@@ -3486,7 +3452,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
         <v>63</v>
       </c>
@@ -3503,7 +3469,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="14">
         <v>2</v>
       </c>
@@ -3523,7 +3489,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="14">
         <v>3</v>
       </c>
@@ -3543,7 +3509,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A48" s="14">
         <v>4</v>
       </c>
@@ -3564,7 +3530,7 @@
       </c>
       <c r="I48" s="13"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="15">
         <v>5</v>
       </c>
@@ -3584,10 +3550,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="15"/>
     </row>
-    <row r="164" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
@@ -3595,7 +3561,7 @@
       <c r="F164" s="2"/>
       <c r="G164" s="2"/>
     </row>
-    <row r="168" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
@@ -3603,7 +3569,7 @@
       <c r="F168" s="2"/>
       <c r="G168" s="2"/>
     </row>
-    <row r="172" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
@@ -3611,7 +3577,7 @@
       <c r="F172" s="2"/>
       <c r="G172" s="2"/>
     </row>
-    <row r="191" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
@@ -3619,7 +3585,7 @@
       <c r="F191" s="2"/>
       <c r="G191" s="2"/>
     </row>
-    <row r="198" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
@@ -3627,7 +3593,7 @@
       <c r="F198" s="2"/>
       <c r="G198" s="2"/>
     </row>
-    <row r="201" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
@@ -3635,7 +3601,7 @@
       <c r="F201" s="2"/>
       <c r="G201" s="2"/>
     </row>
-    <row r="206" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
@@ -3643,7 +3609,7 @@
       <c r="F206" s="2"/>
       <c r="G206" s="2"/>
     </row>
-    <row r="209" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
@@ -3651,7 +3617,7 @@
       <c r="F209" s="2"/>
       <c r="G209" s="2"/>
     </row>
-    <row r="214" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
       <c r="D214" s="2"/>
@@ -3659,7 +3625,7 @@
       <c r="F214" s="2"/>
       <c r="G214" s="2"/>
     </row>
-    <row r="218" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
@@ -3667,7 +3633,7 @@
       <c r="F218" s="2"/>
       <c r="G218" s="2"/>
     </row>
-    <row r="222" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
       <c r="D222" s="2"/>
@@ -3675,7 +3641,7 @@
       <c r="F222" s="2"/>
       <c r="G222" s="2"/>
     </row>
-    <row r="226" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
       <c r="D226" s="2"/>
@@ -3683,7 +3649,7 @@
       <c r="F226" s="2"/>
       <c r="G226" s="2"/>
     </row>
-    <row r="235" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
@@ -3691,7 +3657,7 @@
       <c r="F235" s="2"/>
       <c r="G235" s="2"/>
     </row>
-    <row r="238" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
@@ -3699,7 +3665,7 @@
       <c r="F238" s="2"/>
       <c r="G238" s="2"/>
     </row>
-    <row r="240" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B240" s="5"/>
       <c r="C240" s="5"/>
       <c r="D240" s="5"/>
@@ -3708,7 +3674,7 @@
       <c r="G240" s="5"/>
       <c r="H240" s="5"/>
     </row>
-    <row r="242" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B242" s="5"/>
       <c r="C242" s="5"/>
       <c r="D242" s="5"/>
@@ -3717,7 +3683,7 @@
       <c r="G242" s="5"/>
       <c r="H242" s="5"/>
     </row>
-    <row r="243" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B243" s="5"/>
       <c r="C243" s="5"/>
       <c r="D243" s="5"/>
@@ -3726,7 +3692,7 @@
       <c r="G243" s="5"/>
       <c r="H243" s="5"/>
     </row>
-    <row r="244" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B244" s="5"/>
       <c r="C244" s="5"/>
       <c r="D244" s="5"/>
@@ -3735,7 +3701,7 @@
       <c r="G244" s="5"/>
       <c r="H244" s="5"/>
     </row>
-    <row r="245" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
       <c r="D245" s="2"/>
@@ -3743,10 +3709,10 @@
       <c r="F245" s="2"/>
       <c r="G245" s="2"/>
     </row>
-    <row r="246" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H246" s="5"/>
     </row>
-    <row r="247" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
       <c r="D247" s="2"/>
@@ -3754,7 +3720,7 @@
       <c r="F247" s="2"/>
       <c r="G247" s="2"/>
     </row>
-    <row r="249" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B249" s="5"/>
       <c r="C249" s="5"/>
       <c r="D249" s="5"/>
@@ -3763,7 +3729,7 @@
       <c r="G249" s="5"/>
       <c r="H249" s="5"/>
     </row>
-    <row r="251" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B251" s="5"/>
       <c r="C251" s="5"/>
       <c r="D251" s="5"/>
@@ -3771,7 +3737,7 @@
       <c r="F251" s="5"/>
       <c r="H251" s="5"/>
     </row>
-    <row r="252" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="252" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B252" s="5"/>
       <c r="C252" s="5"/>
       <c r="D252" s="5"/>
@@ -3779,7 +3745,7 @@
       <c r="F252" s="5"/>
       <c r="H252" s="5"/>
     </row>
-    <row r="253" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="253" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B253" s="5"/>
       <c r="C253" s="5"/>
       <c r="D253" s="5"/>
@@ -3787,7 +3753,7 @@
       <c r="F253" s="5"/>
       <c r="H253" s="5"/>
     </row>
-    <row r="254" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="254" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
       <c r="D254" s="2"/>
@@ -3795,7 +3761,7 @@
       <c r="F254" s="2"/>
       <c r="G254" s="2"/>
     </row>
-    <row r="255" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="255" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B255" s="5"/>
       <c r="C255" s="5"/>
       <c r="D255" s="5"/>
@@ -3804,7 +3770,7 @@
       <c r="G255" s="5"/>
       <c r="H255" s="5"/>
     </row>
-    <row r="256" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="256" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
       <c r="D256" s="2"/>
@@ -3812,21 +3778,21 @@
       <c r="F256" s="2"/>
       <c r="G256" s="2"/>
     </row>
-    <row r="257" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="257" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C257" s="5"/>
       <c r="D257" s="5"/>
       <c r="E257" s="5"/>
       <c r="F257" s="5"/>
       <c r="H257" s="5"/>
     </row>
-    <row r="258" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="258" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C258" s="5"/>
       <c r="D258" s="5"/>
       <c r="E258" s="5"/>
       <c r="F258" s="5"/>
       <c r="H258" s="5"/>
     </row>
-    <row r="259" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="259" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
       <c r="D259" s="2"/>
@@ -3834,13 +3800,13 @@
       <c r="F259" s="2"/>
       <c r="G259" s="2"/>
     </row>
-    <row r="260" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="260" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C260" s="5"/>
       <c r="D260" s="5"/>
       <c r="E260" s="5"/>
       <c r="H260" s="5"/>
     </row>
-    <row r="261" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="261" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C261" s="5"/>
       <c r="D261" s="5"/>
       <c r="E261" s="5"/>
@@ -3864,20 +3830,20 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>68</v>
       </c>
@@ -3900,7 +3866,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>27</v>
       </c>
@@ -3917,7 +3883,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>3</v>
       </c>
@@ -3934,7 +3900,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>15</v>
       </c>
@@ -3951,7 +3917,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>18</v>
       </c>
@@ -3968,7 +3934,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>27</v>
       </c>
@@ -3985,7 +3951,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>30</v>
       </c>
@@ -4002,7 +3968,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>33</v>
       </c>
@@ -4019,7 +3985,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>36</v>
       </c>
@@ -4036,7 +4002,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>27</v>
       </c>
@@ -4051,7 +4017,7 @@
       </c>
       <c r="L10" s="11"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>1</v>
       </c>
@@ -4069,7 +4035,7 @@
       </c>
       <c r="L11" s="11"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>66</v>
       </c>
@@ -4084,7 +4050,7 @@
       </c>
       <c r="L12" s="11"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>3</v>
       </c>
@@ -4104,7 +4070,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>15</v>
       </c>
@@ -4121,7 +4087,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>18</v>
       </c>
@@ -4138,7 +4104,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>27</v>
       </c>
@@ -4155,7 +4121,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>30</v>
       </c>
@@ -4172,7 +4138,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>33</v>
       </c>
@@ -4189,7 +4155,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>36</v>
       </c>
@@ -4206,7 +4172,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>63</v>
       </c>
@@ -4220,7 +4186,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>1</v>
       </c>
@@ -4237,17 +4203,17 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J25" s="11" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J36" s="11" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
@@ -4255,7 +4221,7 @@
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
@@ -4263,7 +4229,7 @@
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
     </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
@@ -4271,7 +4237,7 @@
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
     </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
@@ -4279,7 +4245,7 @@
       <c r="F111" s="2"/>
       <c r="G111" s="2"/>
     </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
@@ -4287,7 +4253,7 @@
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
     </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
@@ -4295,7 +4261,7 @@
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
     </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
@@ -4303,7 +4269,7 @@
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
     </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
@@ -4311,7 +4277,7 @@
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
     </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
@@ -4319,7 +4285,7 @@
       <c r="F124" s="2"/>
       <c r="G124" s="2"/>
     </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
@@ -4327,7 +4293,7 @@
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
     </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
@@ -4335,7 +4301,7 @@
       <c r="F131" s="2"/>
       <c r="G131" s="2"/>
     </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
@@ -4343,7 +4309,7 @@
       <c r="F137" s="2"/>
       <c r="G137" s="2"/>
     </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
@@ -4351,7 +4317,7 @@
       <c r="F140" s="2"/>
       <c r="G140" s="2"/>
     </row>
-    <row r="146" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
